--- a/examples/template/generic_with_links.xlsx
+++ b/examples/template/generic_with_links.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Enrichment protocol" sheetId="3" r:id="rId3"/>
     <sheet name="Dissociation protocol" sheetId="4" r:id="rId4"/>
     <sheet name="Collection protocol" sheetId="5" r:id="rId5"/>
-    <sheet name="Sequence file" sheetId="6" r:id="rId6"/>
-    <sheet name="Specimen from organism" sheetId="7" r:id="rId7"/>
-    <sheet name="Donor organism" sheetId="8" r:id="rId8"/>
-    <sheet name="Cell suspension" sheetId="9" r:id="rId9"/>
+    <sheet name="Project" sheetId="6" r:id="rId6"/>
+    <sheet name="Sequence file" sheetId="7" r:id="rId7"/>
+    <sheet name="Specimen from organism" sheetId="8" r:id="rId8"/>
+    <sheet name="Donor organism" sheetId="9" r:id="rId9"/>
+    <sheet name="Cell suspension" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="807">
   <si>
     <t>PROTOCOL ID (Required)</t>
   </si>
@@ -777,6 +778,312 @@
     <t>collection_protocol.protocol_reagents.kit_titer</t>
   </si>
   <si>
+    <t>PROJECT LABEL (Required)</t>
+  </si>
+  <si>
+    <t>A short name for the project.</t>
+  </si>
+  <si>
+    <t>Project label is a short label by which you refer to the project. It should have no spaces and should be fewer than 50 characters. For example: CoolOrganProject.</t>
+  </si>
+  <si>
+    <t>project.project_core.project_short_name</t>
+  </si>
+  <si>
+    <t>PROJECT TITLE (Required)</t>
+  </si>
+  <si>
+    <t>An official title for the project.</t>
+  </si>
+  <si>
+    <t>Project title should be fewer than 30 words, such as a title of a grant proposal or a publication. For example: Study of single cells in the human body.</t>
+  </si>
+  <si>
+    <t>project.project_core.project_title</t>
+  </si>
+  <si>
+    <t>PROJECT DESCRIPTION (Required)</t>
+  </si>
+  <si>
+    <t>A longer description of the project which includes research goals and experimental approach.</t>
+  </si>
+  <si>
+    <t>Project description should be fewer than 300 words, such as an abstract from a grant application or publication.</t>
+  </si>
+  <si>
+    <t>project.project_core.project_description</t>
+  </si>
+  <si>
+    <t>CONTACT NAME (Required)</t>
+  </si>
+  <si>
+    <t>Name of individual who has contributed to the project.</t>
+  </si>
+  <si>
+    <t>Enter in the format: first name,middle name or initial,last name. For example: John,D,Doe; Jane,,Smith</t>
+  </si>
+  <si>
+    <t>project.contributors.contact_name</t>
+  </si>
+  <si>
+    <t>EMAIL ADDRESS</t>
+  </si>
+  <si>
+    <t>Email address for the individual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: dummy@email.com</t>
+  </si>
+  <si>
+    <t>project.contributors.email</t>
+  </si>
+  <si>
+    <t>PHONE NUMBER</t>
+  </si>
+  <si>
+    <t>Phone number of the individual or their lab.</t>
+  </si>
+  <si>
+    <t>Include the country code. For example: (+1) 234-555-6789</t>
+  </si>
+  <si>
+    <t>project.contributors.phone</t>
+  </si>
+  <si>
+    <t>INSTITUTE (Required)</t>
+  </si>
+  <si>
+    <t>Name of primary institute where the individual works.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: EMBL-EBI; University of Washington</t>
+  </si>
+  <si>
+    <t>project.contributors.institution</t>
+  </si>
+  <si>
+    <t>LABORATORY/DEPARTMENT</t>
+  </si>
+  <si>
+    <t>Name of lab or department within the institute where the individual works.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: Division of Vaccine Discovery; Department of Biology</t>
+  </si>
+  <si>
+    <t>project.contributors.laboratory</t>
+  </si>
+  <si>
+    <t>STREET ADDRESS</t>
+  </si>
+  <si>
+    <t>Street address where the individual works.</t>
+  </si>
+  <si>
+    <t>Include street name and number, city, country division, and postal code. For example: 0000 Main Street, Nowheretown, MA, 12091</t>
+  </si>
+  <si>
+    <t>project.contributors.address</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>Country where the individual works.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: USA</t>
+  </si>
+  <si>
+    <t>project.contributors.country</t>
+  </si>
+  <si>
+    <t>CORRESPONDING CONTRIBUTOR?</t>
+  </si>
+  <si>
+    <t>Whether the individual is a primary point of contact for the project.</t>
+  </si>
+  <si>
+    <t>project.contributors.corresponding_contributor</t>
+  </si>
+  <si>
+    <t>PROJECT ROLE</t>
+  </si>
+  <si>
+    <t>Primary role of the individual in the project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: principal investigator; computational scientist</t>
+  </si>
+  <si>
+    <t>project.contributors.project_role</t>
+  </si>
+  <si>
+    <t>ORCID ID</t>
+  </si>
+  <si>
+    <t>The individual's ORCID ID linked to previous work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 0000-1111-2222-3333</t>
+  </si>
+  <si>
+    <t>project.contributors.orcid_id</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTARY LINK(S)</t>
+  </si>
+  <si>
+    <t>External link(s) pointing to code, supplementary data files, or analysis files associated with the project which will not be uploaded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: https://github.com/czbiohub/tabula-muris; http://celltag.org/</t>
+  </si>
+  <si>
+    <t>project.supplementary_links</t>
+  </si>
+  <si>
+    <t>AUTHORS (Required)</t>
+  </si>
+  <si>
+    <t>A list of authors associated with the publication.</t>
+  </si>
+  <si>
+    <t>List each author in 'surname initials' format. For example: Doe JD</t>
+  </si>
+  <si>
+    <t>project.publications.authors</t>
+  </si>
+  <si>
+    <t>PUBLICATION TITLE (Required)</t>
+  </si>
+  <si>
+    <t>The title of the publication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: Study of single cells in the human body.</t>
+  </si>
+  <si>
+    <t>project.publications.publication_title</t>
+  </si>
+  <si>
+    <t>The publication digital object identifier (doi) of the publication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 10.1016/j.cell.2016.07.054</t>
+  </si>
+  <si>
+    <t>project.publications.doi</t>
+  </si>
+  <si>
+    <t>PUBLICATION PMID</t>
+  </si>
+  <si>
+    <t>The PubMed ID of the publication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 27565351</t>
+  </si>
+  <si>
+    <t>project.publications.pmid</t>
+  </si>
+  <si>
+    <t>PUBLICATION URL</t>
+  </si>
+  <si>
+    <t>A URL for the publication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5667944/</t>
+  </si>
+  <si>
+    <t>project.publications.publication_url</t>
+  </si>
+  <si>
+    <t>INSDC PROJECT ACCESSION</t>
+  </si>
+  <si>
+    <t>An International Nucleotide Sequence Database Collaboration (INSDC) project accession.</t>
+  </si>
+  <si>
+    <t>Enter accession if project has been archived. Accession can be from the DDBJ, NCBI, or EMBL-EBI and must start with DRP, SRP, or ERP, respectively. For example: SRP000000</t>
+  </si>
+  <si>
+    <t>project.insdc_project_accessions</t>
+  </si>
+  <si>
+    <t>GEO SERIES ACCESSION</t>
+  </si>
+  <si>
+    <t>A Gene Expression Omnibus (GEO) series accession.</t>
+  </si>
+  <si>
+    <t>Enter accession if project has been archived. Accession must start with GSE. For example: GSE00000</t>
+  </si>
+  <si>
+    <t>project.geo_series_accessions</t>
+  </si>
+  <si>
+    <t>ARRAYEXPRESS ACCESSION</t>
+  </si>
+  <si>
+    <t>An ArrayExpress accession.</t>
+  </si>
+  <si>
+    <t>Enter accession if project has been archived. Accession must start with E-. For example: E-AAAA-00</t>
+  </si>
+  <si>
+    <t>project.array_express_accessions</t>
+  </si>
+  <si>
+    <t>INSDC STUDY ACCESSION</t>
+  </si>
+  <si>
+    <t>An International Nucleotide Sequence Database Collaboration (INSDC) study accession.</t>
+  </si>
+  <si>
+    <t>Enter accession if study has been archived. Accession can be from the DDBJ, NCBI, or EMBL-EBI and must start with PRJD, PRJN, or PRJE, respectively. For example: PRJNA000000</t>
+  </si>
+  <si>
+    <t>project.insdc_study_accessions</t>
+  </si>
+  <si>
+    <t>GRANT TITLE</t>
+  </si>
+  <si>
+    <t>The name of the grant funding the project.</t>
+  </si>
+  <si>
+    <t>Enter a title of approximately 30 words. For example: Study of single cells in the human body.</t>
+  </si>
+  <si>
+    <t>project.funders.grant_title</t>
+  </si>
+  <si>
+    <t>GRANT ID (Required)</t>
+  </si>
+  <si>
+    <t>The unique grant identifier or reference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: BB/P0000001/1</t>
+  </si>
+  <si>
+    <t>project.funders.grant_id</t>
+  </si>
+  <si>
+    <t>FUNDING ORGANIZATION (Required)</t>
+  </si>
+  <si>
+    <t>The name of the funding organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: Biotechnology and Biological Sciences Research Council (BBSRC); California Institute of Regenerative Medicine (CIRM)</t>
+  </si>
+  <si>
+    <t>project.funders.organization</t>
+  </si>
+  <si>
     <t>FILE NAME (Required)</t>
   </si>
   <si>
@@ -879,957 +1186,975 @@
     <t>Enter biomaterial ID from "Cell suspension" tab that this entity was derived from.</t>
   </si>
   <si>
+    <t>cell_suspension.biomaterial_core.biomaterial_id</t>
+  </si>
+  <si>
+    <t>LIBRARY PREPARATION PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from "Library preparation protocol" tab that this entity was derrived from.</t>
+  </si>
+  <si>
+    <t>SEQUENCING PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from "Sequencing protocol" tab that this entity was derrived from.</t>
+  </si>
+  <si>
+    <t>BIOMATERIAL ID (Required)</t>
+  </si>
+  <si>
+    <t>A unique ID for the biomaterial.</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.biomaterial_id</t>
+  </si>
+  <si>
+    <t>BIOMATERIAL NAME</t>
+  </si>
+  <si>
+    <t>A short, descriptive name for the biomaterial that need not be unique.</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.biomaterial_name</t>
+  </si>
+  <si>
+    <t>BIOMATERIAL DESCRIPTION</t>
+  </si>
+  <si>
+    <t>A general description of the biomaterial.</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.biomaterial_description</t>
+  </si>
+  <si>
+    <t>NCBI TAXON ID (Required)</t>
+  </si>
+  <si>
+    <t>A taxonomy ID (taxonID) from NCBI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 9606</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.ncbi_taxon_id</t>
+  </si>
+  <si>
+    <t>GENOTYPE</t>
+  </si>
+  <si>
+    <t>Genotype of the biomaterial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: DRB1 0401 protective allele; HLA-B*3901 allele</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.genotype</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTARY FILES</t>
+  </si>
+  <si>
+    <t>A list of filenames of biomaterial-level supplementary files.</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.supplementary_files</t>
+  </si>
+  <si>
+    <t>BIOSAMPLES ID</t>
+  </si>
+  <si>
+    <t>A BioSamples ID.</t>
+  </si>
+  <si>
+    <t>Enter ID if sample has been archived. ID can be from the DDBJ, NCBI, or EMBL-EBI and must start with SAMD, SAMN, or SAME, respectively. For example: SAMN00000000</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.biosd_biomaterial</t>
+  </si>
+  <si>
+    <t>INSDC ID</t>
+  </si>
+  <si>
+    <t>An International Nucleotide Sequence Database Collaboration (INSDC) sample accession.</t>
+  </si>
+  <si>
+    <t>Enter accession if sample has been archived. Accession can be from the DDBJ, NCBI, or EMBL-EBI and must start with DRS, SRS, or ERS, respecitvely. For example: SRS0000000</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.insdc_biomaterial</t>
+  </si>
+  <si>
+    <t>GENUS SPECIES (Required)</t>
+  </si>
+  <si>
+    <t>The scientific binomial name for the species of the specimen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: Homo sapiens; Mus musculus</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.genus_species.text</t>
+  </si>
+  <si>
+    <t>GENUS SPECIES ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: NCBITaxon:9606; NCBITaxon:10090</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.genus_species.ontology</t>
+  </si>
+  <si>
+    <t>GENUS SPECIES ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.genus_species.ontology_label</t>
+  </si>
+  <si>
+    <t>SPECIMEN_FROM_ORGANISM.ORGAN (Required)</t>
+  </si>
+  <si>
+    <t>A term that may be associated with an anatomy-related ontology term.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: heart; immune system</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ.text</t>
+  </si>
+  <si>
+    <t>SPECIMEN_FROM_ORGANISM.ORGAN.ONTOLOGY ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>A term from the ontology [UBERON](https://www.ebi.ac.uk/ols/ontologies/uberon) for an organ or a cellular bodily fluid such as blood or lymph.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: UBERON:0000948; UBERON:0002405</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ.ontology</t>
+  </si>
+  <si>
+    <t>SPECIMEN_FROM_ORGANISM.ORGAN.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ.ontology_label</t>
+  </si>
+  <si>
+    <t>SPECIMEN_FROM_ORGANISM.ORGAN_PART</t>
+  </si>
+  <si>
+    <t>A term that may be associated with an anatomy-related ontology term</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: bone marrow; islet of Langerhans</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ_part.text</t>
+  </si>
+  <si>
+    <t>SPECIMEN_FROM_ORGANISM.ORGAN_PART.ONTOLOGY ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>A term for a specific part of an organ from the ontology [UBERON](https://www.ebi.ac.uk/ols/ontologies/uberon).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: UBERON:0002371; UBERON:0000006</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ_part.ontology</t>
+  </si>
+  <si>
+    <t>SPECIMEN_FROM_ORGANISM.ORGAN_PART.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ_part.ontology_label</t>
+  </si>
+  <si>
+    <t>KNOWN DISEASE(S)</t>
+  </si>
+  <si>
+    <t>Short description of known disease(s) of the specimen.</t>
+  </si>
+  <si>
+    <t>Enter normal if no known diseases. For example: type 2 diabetes mellitus; normal</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.diseases.text</t>
+  </si>
+  <si>
+    <t>KNOWN DISEASE(S) ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>An optional ontology reference in format where prefix_ indicates which ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: MONDO:0005148; PATO:0000461</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.diseases.ontology</t>
+  </si>
+  <si>
+    <t>KNOWN DISEASE(S) ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: type 2 diabetes mellitus; normal</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.diseases.ontology_label</t>
+  </si>
+  <si>
+    <t>AUTOLYSIS SCORE</t>
+  </si>
+  <si>
+    <t>State of tissue breakdown due to self-digestion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: Should be one of: none, mild, or moderate.</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.state_of_specimen.autolysis_score</t>
+  </si>
+  <si>
+    <t>GROSS DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Color, size, and other aspects of specimen as visible to naked eye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: focal wedge shaped region of tan-orange discoloration; cystic</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.state_of_specimen.gross_description</t>
+  </si>
+  <si>
+    <t>GROSS IMAGE</t>
+  </si>
+  <si>
+    <t>List of filenames of photographs of specimen without magnification.</t>
+  </si>
+  <si>
+    <t>File must be of format JPEG, TIFF, or PNG. For example: my_gross_image_file.jpg</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.state_of_specimen.gross_image</t>
+  </si>
+  <si>
+    <t>ISCHEMIC TEMPERATURE</t>
+  </si>
+  <si>
+    <t>Whether specimen experienced warm or cold ischemia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: Should be one of: warm, or cold.</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.state_of_specimen.ischemic_temperature</t>
+  </si>
+  <si>
+    <t>ISCHEMIC TIME</t>
+  </si>
+  <si>
+    <t>Duration of time, in seconds, between when the specimen stopped receiving oxygen and when it was preserved or processed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 7200</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.state_of_specimen.ischemic_time</t>
+  </si>
+  <si>
+    <t>MICROSCOPIC DESCRIPTION</t>
+  </si>
+  <si>
+    <t>How the specimen looks under the microscope and how it compares with normal cells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: Mixture of different cell sizes apparent; Dead cells are quite faint on microscope</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.state_of_specimen.microscopic_description</t>
+  </si>
+  <si>
+    <t>MICROSCOPIC IMAGE</t>
+  </si>
+  <si>
+    <t>List of filenames of photographs of specimen under microscope.</t>
+  </si>
+  <si>
+    <t>File must be of format JPEG, TIFF, or PNG. For example: my_microscopic_image_file.jpg</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.state_of_specimen.microscopic_image</t>
+  </si>
+  <si>
+    <t>POST-MORTEM INTERVAL</t>
+  </si>
+  <si>
+    <t>Duration of time between when death was declared and when the specimen was preserved or processed.</t>
+  </si>
+  <si>
+    <t>Enter time in seconds. For example: 2400</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.state_of_specimen.postmortem_interval</t>
+  </si>
+  <si>
+    <t>STORAGE METHOD</t>
+  </si>
+  <si>
+    <t>The method by which a biomaterial was stored after preservation or before another protocol was used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: frozen in liquid nitrogen; fresh</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.preservation_storage.storage_method</t>
+  </si>
+  <si>
+    <t>STORAGE TIME</t>
+  </si>
+  <si>
+    <t>Length of time the biomaterial was stored for in Storage time units.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 5</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.preservation_storage.storage_time</t>
+  </si>
+  <si>
+    <t>SPECIMEN_FROM_ORGANISM.PRESERVATION_STORAGE.STORAGE_TIME_UNIT</t>
+  </si>
+  <si>
+    <t>A term that may be associated with a time unit-related ontology term</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: second; week</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.preservation_storage.storage_time_unit.text</t>
+  </si>
+  <si>
+    <t>SPECIMEN_FROM_ORGANISM.PRESERVATION_STORAGE.STORAGE_TIME_UNIT.ONTOLOGY ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: UO:0000010; UO:0000034</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.preservation_storage.storage_time_unit.ontology</t>
+  </si>
+  <si>
+    <t>SPECIMEN_FROM_ORGANISM.PRESERVATION_STORAGE.STORAGE_TIME_UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.preservation_storage.storage_time_unit.ontology_label</t>
+  </si>
+  <si>
+    <t>PRESERVATION METHOD</t>
+  </si>
+  <si>
+    <t>The method by which a biomaterial was preserved through the use of chemicals, cold, or other means to prevent or retard biological or physical deterioration.</t>
+  </si>
+  <si>
+    <t>Enter 'fresh' if not preserved. For example: cryopreservation in liquid nitrogen (dead tissue); fresh</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.preservation_storage.preservation_method</t>
+  </si>
+  <si>
+    <t>TIME OF COLLECTION</t>
+  </si>
+  <si>
+    <t>When the biomaterial was collected.</t>
+  </si>
+  <si>
+    <t>Enter the time in date-time format: yyyy-mm-ddThh:mm:ssZ. For example: 2017-03-19T07:22:00Z</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.collection_time</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.purchased_specimen.retail_name</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.purchased_specimen.catalog_number</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.purchased_specimen.manufacturer</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.purchased_specimen.lot_number</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.purchased_specimen.expiry_date</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.purchased_specimen.kit_titer</t>
+  </si>
+  <si>
+    <t>DERIVED FROM DONOR ORGANISM</t>
+  </si>
+  <si>
+    <t>Enter biomaterial ID from "Donor organism" tab that this entity was derived from.</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.biomaterial_id</t>
+  </si>
+  <si>
+    <t>COLLECTION PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from "Collection protocol" tab that this entity was derrived from.</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.biomaterial_name</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.biomaterial_description</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.ncbi_taxon_id</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.genotype</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.supplementary_files</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.biosd_biomaterial</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.insdc_biomaterial</t>
+  </si>
+  <si>
+    <t>BODY MASS INDEX</t>
+  </si>
+  <si>
+    <t>The body mass index of the donor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: 36.4</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.body_mass_index</t>
+  </si>
+  <si>
+    <t>ETHNICITY</t>
+  </si>
+  <si>
+    <t>Ethnicity of the donor.</t>
+  </si>
+  <si>
+    <t>Enter one or more ethnicities, separated by a comma. For example: European; Hispanic or Latin American</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.ethnicity.text</t>
+  </si>
+  <si>
+    <t>ETHNICITY ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: HANCESTRO_0005 ;HANCESTRO_0014</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.ethnicity.ontology</t>
+  </si>
+  <si>
+    <t>ETHNICITY ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: European; Hispanic or Latin American</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.ethnicity.ontology_label</t>
+  </si>
+  <si>
+    <t>MOUSE STRAIN</t>
+  </si>
+  <si>
+    <t>The name of the mouse strain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: C57BL/6; BALB/c</t>
+  </si>
+  <si>
+    <t>donor_organism.mouse_specific.strain.text</t>
+  </si>
+  <si>
+    <t>MOUSE STRAIN ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: EFO:0004472; EFO:0000602</t>
+  </si>
+  <si>
+    <t>donor_organism.mouse_specific.strain.ontology</t>
+  </si>
+  <si>
+    <t>MOUSE STRAIN ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>donor_organism.mouse_specific.strain.ontology_label</t>
+  </si>
+  <si>
+    <t>The scientific binomial name for the species of the organism.</t>
+  </si>
+  <si>
+    <t>donor_organism.genus_species.text</t>
+  </si>
+  <si>
+    <t>donor_organism.genus_species.ontology</t>
+  </si>
+  <si>
+    <t>donor_organism.genus_species.ontology_label</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL SEX (Required)</t>
+  </si>
+  <si>
+    <t>The biological sex of the organism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: Should be one of: male, female, mixed, or unknown.</t>
+  </si>
+  <si>
+    <t>donor_organism.sex</t>
+  </si>
+  <si>
+    <t>ALIVE AT COLLECTION? (Required)</t>
+  </si>
+  <si>
+    <t>Whether organism was alive at time of biomaterial collection.</t>
+  </si>
+  <si>
+    <t>Enter yes if organism was alive at time of biomaterial collection, no if organism was dead, unknown if not known. For example: Should be one of: yes, no, or unknown.</t>
+  </si>
+  <si>
+    <t>donor_organism.is_living</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>Age of organism in Age units measured since birth.</t>
+  </si>
+  <si>
+    <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 20; 45-65</t>
+  </si>
+  <si>
+    <t>donor_organism.organism_age</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.ORGANISM_AGE_UNIT</t>
+  </si>
+  <si>
+    <t>donor_organism.organism_age_unit.text</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.ORGANISM_AGE_UNIT.ONTOLOGY ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>donor_organism.organism_age_unit.ontology</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.ORGANISM_AGE_UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>donor_organism.organism_age_unit.ontology_label</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.DEVELOPMENT_STAGE (Required)</t>
+  </si>
+  <si>
+    <t>A term that may be associated with a development stage-related ontology term</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: human adult stage; Theiler stage 28</t>
+  </si>
+  <si>
+    <t>donor_organism.development_stage.text</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.DEVELOPMENT_STAGE.ONTOLOGY ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: HsapDv:0000087; EFO:0002588</t>
+  </si>
+  <si>
+    <t>donor_organism.development_stage.ontology</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.DEVELOPMENT_STAGE.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>donor_organism.development_stage.ontology_label</t>
+  </si>
+  <si>
+    <t>Short description of known disease(s) of the organism.</t>
+  </si>
+  <si>
+    <t>Enter 'normal' if no known disease. For example: type 2 diabetes mellitus; normal</t>
+  </si>
+  <si>
+    <t>donor_organism.diseases.text</t>
+  </si>
+  <si>
+    <t>donor_organism.diseases.ontology</t>
+  </si>
+  <si>
+    <t>donor_organism.diseases.ontology_label</t>
+  </si>
+  <si>
+    <t>CAUSE OF DEATH (Required)</t>
+  </si>
+  <si>
+    <t>Conditions resulting in death.</t>
+  </si>
+  <si>
+    <t>Determined from death report for human donor or from research lab for mouse. For example: Hypoxic brain damage; Sudden cardiac arrest</t>
+  </si>
+  <si>
+    <t>donor_organism.death.cause_of_death</t>
+  </si>
+  <si>
+    <t>COLD PERFUSED?</t>
+  </si>
+  <si>
+    <t>Whether perfusion with cold fluid was used to help preserve tissues before heart stopped.</t>
+  </si>
+  <si>
+    <t>Enter yes if cold perfused. Otherwise, enter no. For example: Should be one of: yes, no.</t>
+  </si>
+  <si>
+    <t>donor_organism.death.cold_perfused</t>
+  </si>
+  <si>
+    <t>NUMBER OF DAYS ON VENTILATOR</t>
+  </si>
+  <si>
+    <t>Number of days on ventilator before death occurred.</t>
+  </si>
+  <si>
+    <t>donor_organism.death.days_on_ventilator</t>
+  </si>
+  <si>
+    <t>VALUE ON HARDY SCALE</t>
+  </si>
+  <si>
+    <t>Value on 4-point Hardy scale cause of death classification.</t>
+  </si>
+  <si>
+    <t>Enter: 0 for ventilator case, 1 for violent and fast death, 2 for fast death of natural causes, 3 for intermediate death, or 4 for slow death.</t>
+  </si>
+  <si>
+    <t>donor_organism.death.hardy_scale</t>
+  </si>
+  <si>
+    <t>TIME OF DEATH</t>
+  </si>
+  <si>
+    <t>Date and time when death was declared.</t>
+  </si>
+  <si>
+    <t>Enter the time in date-time format: yyyy-mm-ddThh:mm:ssZ. For example: 2016-01-21T00:00:00Z</t>
+  </si>
+  <si>
+    <t>donor_organism.death.time_of_death</t>
+  </si>
+  <si>
+    <t>ORGAN DONATION DEATH TYPE</t>
+  </si>
+  <si>
+    <t>Type of death preceding organ donation.</t>
+  </si>
+  <si>
+    <t>Enter value for organ donors only. For example: Should be one of: Donation after circulatory death (DCD), or Donation after brainstem death (DBD).</t>
+  </si>
+  <si>
+    <t>donor_organism.death.organ_donation_death_type</t>
+  </si>
+  <si>
+    <t>NORMOTHERMIC REGIONAL PERFUSION?</t>
+  </si>
+  <si>
+    <t>Whether entire body was perfused with warm oxygenated blood.</t>
+  </si>
+  <si>
+    <t>Enter yes if entire body (but not limbs) was perfused with warm oxygenated blood. Otherwise, enter no. For example: Should be one of: yes, no, or unknown.</t>
+  </si>
+  <si>
+    <t>donor_organism.death.normothermic_regional_perfusion</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>The individual's parent.</t>
+  </si>
+  <si>
+    <t>Enter the ID of the parent of this individual.</t>
+  </si>
+  <si>
+    <t>donor_organism.familial_relationship.parent</t>
+  </si>
+  <si>
+    <t>CHILD</t>
+  </si>
+  <si>
+    <t>The individual's child.</t>
+  </si>
+  <si>
+    <t>Enter the ID of the child of this individual.</t>
+  </si>
+  <si>
+    <t>donor_organism.familial_relationship.child</t>
+  </si>
+  <si>
+    <t>SIBLING</t>
+  </si>
+  <si>
+    <t>The individual's sibling.</t>
+  </si>
+  <si>
+    <t>Enter the ID of the sibling of this individual.</t>
+  </si>
+  <si>
+    <t>donor_organism.familial_relationship.sibling</t>
+  </si>
+  <si>
+    <t>ALCOHOL HISTORY</t>
+  </si>
+  <si>
+    <t>Estimated amount of alcohol consumed per day.</t>
+  </si>
+  <si>
+    <t>Enter the amount consumed per day using units such as alcohol units (10mL or 8g of alcohol) or drinks (14g of alcohol). For example: 3-6 alcohol units/day; 1 drink per day</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.alcohol_history</t>
+  </si>
+  <si>
+    <t>MEDICATIONS</t>
+  </si>
+  <si>
+    <t>Medications the individual was taking at time of biomaterial collection.</t>
+  </si>
+  <si>
+    <t>Enter the medication and dosage. Separate multiple medications with commas. For example: Naproxen 500mg/day; Citalopram 20mg/day</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.medication</t>
+  </si>
+  <si>
+    <t>SMOKING HISTORY</t>
+  </si>
+  <si>
+    <t>Estimated number of cigarettes smoked per day.</t>
+  </si>
+  <si>
+    <t>Enter an estimated number of cigarettes smoked per day and for how many years. For example: 20 cigarettes/day for 25 years, stopped 2000</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.smoking_history</t>
+  </si>
+  <si>
+    <t>NUTRITIONAL STATE</t>
+  </si>
+  <si>
+    <t>Nutritional state of individual at time of biomaterial collection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: Should be one of: normal, fasting, or feeding tube removed.</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.nutritional_state</t>
+  </si>
+  <si>
+    <t>TEST RESULTS</t>
+  </si>
+  <si>
+    <t>Results from medical tests performed on the individual.</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.test_results</t>
+  </si>
+  <si>
+    <t>TREATMENTS</t>
+  </si>
+  <si>
+    <t>Treatments the individual has undergone prior to biomaterial collection.</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.treatment</t>
+  </si>
+  <si>
+    <t>GESTATIONAL AGE</t>
+  </si>
+  <si>
+    <t>Gestational age of organism in Gestational age units measured since fertilization.</t>
+  </si>
+  <si>
+    <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 22; 5-7</t>
+  </si>
+  <si>
+    <t>donor_organism.gestational_age</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.GESTATIONAL_AGE_UNIT</t>
+  </si>
+  <si>
+    <t>donor_organism.gestational_age_unit.text</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.GESTATIONAL_AGE_UNIT.ONTOLOGY ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>donor_organism.gestational_age_unit.ontology</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.GESTATIONAL_AGE_UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>donor_organism.gestational_age_unit.ontology_label</t>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+  </si>
+  <si>
+    <t>Height of organism in Height unit.</t>
+  </si>
+  <si>
+    <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 160; 120-140</t>
+  </si>
+  <si>
+    <t>donor_organism.height</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.HEIGHT_UNIT</t>
+  </si>
+  <si>
+    <t>A term that may be associated with a cell type-related ontology term</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: micrometer; meter</t>
+  </si>
+  <si>
+    <t>donor_organism.height_unit.text</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.HEIGHT_UNIT.ONTOLOGY ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: UO:0000017; UO:0000008</t>
+  </si>
+  <si>
+    <t>donor_organism.height_unit.ontology</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.HEIGHT_UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>donor_organism.height_unit.ontology_label</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
+    <t>Weight of organism in Weight unit.</t>
+  </si>
+  <si>
+    <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 60; 40-60</t>
+  </si>
+  <si>
+    <t>donor_organism.weight</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.WEIGHT_UNIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: kilogram; microgram</t>
+  </si>
+  <si>
+    <t>donor_organism.weight_unit.text</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.WEIGHT_UNIT.ONTOLOGY ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: UO:0000009; UO:0000023</t>
+  </si>
+  <si>
+    <t>donor_organism.weight_unit.ontology</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.WEIGHT_UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>donor_organism.weight_unit.ontology_label</t>
+  </si>
+  <si>
+    <t>TIMECOURSE VALUE (Required)</t>
+  </si>
+  <si>
+    <t>The numerical value in Timecourse unit associated with a time interval used in the experiment.</t>
+  </si>
+  <si>
+    <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 2; 5.5-10.5</t>
+  </si>
+  <si>
+    <t>donor_organism.timecourse.value</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.TIMECOURSE.UNIT (Required)</t>
+  </si>
+  <si>
+    <t>donor_organism.timecourse.unit.text</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.TIMECOURSE.UNIT.ONTOLOGY ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>donor_organism.timecourse.unit.ontology</t>
+  </si>
+  <si>
+    <t>DONOR_ORGANISM.TIMECOURSE.UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>donor_organism.timecourse.unit.ontology_label</t>
+  </si>
+  <si>
+    <t>TIMECOURSE RELEVANCE</t>
+  </si>
+  <si>
+    <t>Relevance of the Timecourse value/unit to the experiment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: Collection after tumor cells injected into the mammary gland; Time tissue underwent liberase digestion</t>
+  </si>
+  <si>
+    <t>donor_organism.timecourse.relevance</t>
+  </si>
+  <si>
+    <t>DERIVED FROM SEQUENCE FILE</t>
+  </si>
+  <si>
+    <t>Enter biomaterial ID from "Sequence file" tab that this entity was derived from.</t>
+  </si>
+  <si>
+    <t>protocol.protocol_core.protocol_id</t>
+  </si>
+  <si>
+    <t>cell_suspension.biomaterial_core.biomaterial_name</t>
+  </si>
+  <si>
+    <t>cell_suspension.biomaterial_core.biomaterial_description</t>
+  </si>
+  <si>
     <t>cell_suspension.biomaterial_core.ncbi_taxon_id</t>
   </si>
   <si>
-    <t>BIOMATERIAL ID (Required)</t>
-  </si>
-  <si>
-    <t>A unique ID for the biomaterial.</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.biomaterial_core.biomaterial_id</t>
-  </si>
-  <si>
-    <t>BIOMATERIAL NAME</t>
-  </si>
-  <si>
-    <t>A short, descriptive name for the biomaterial that need not be unique.</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.biomaterial_core.biomaterial_name</t>
-  </si>
-  <si>
-    <t>BIOMATERIAL DESCRIPTION</t>
-  </si>
-  <si>
-    <t>A general description of the biomaterial.</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.biomaterial_core.biomaterial_description</t>
-  </si>
-  <si>
-    <t>NCBI TAXON ID (Required)</t>
-  </si>
-  <si>
-    <t>A taxonomy ID (taxonID) from NCBI.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: 9606</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.biomaterial_core.ncbi_taxon_id</t>
-  </si>
-  <si>
-    <t>GENOTYPE</t>
-  </si>
-  <si>
-    <t>Genotype of the biomaterial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: DRB1 0401 protective allele; HLA-B*3901 allele</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.biomaterial_core.genotype</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTARY FILES</t>
-  </si>
-  <si>
-    <t>A list of filenames of biomaterial-level supplementary files.</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.biomaterial_core.supplementary_files</t>
-  </si>
-  <si>
-    <t>BIOSAMPLES ID</t>
-  </si>
-  <si>
-    <t>A BioSamples ID.</t>
-  </si>
-  <si>
-    <t>Enter ID if sample has been archived. ID can be from the DDBJ, NCBI, or EMBL-EBI and must start with SAMD, SAMN, or SAME, respectively. For example: SAMN00000000</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.biomaterial_core.biosd_biomaterial</t>
-  </si>
-  <si>
-    <t>INSDC ID</t>
-  </si>
-  <si>
-    <t>An International Nucleotide Sequence Database Collaboration (INSDC) sample accession.</t>
-  </si>
-  <si>
-    <t>Enter accession if sample has been archived. Accession can be from the DDBJ, NCBI, or EMBL-EBI and must start with DRS, SRS, or ERS, respecitvely. For example: SRS0000000</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.biomaterial_core.insdc_biomaterial</t>
-  </si>
-  <si>
-    <t>GENUS SPECIES (Required)</t>
-  </si>
-  <si>
-    <t>The scientific binomial name for the species of the specimen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: Homo sapiens; Mus musculus</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.genus_species.text</t>
-  </si>
-  <si>
-    <t>GENUS SPECIES ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: NCBITaxon:9606; NCBITaxon:10090</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.genus_species.ontology</t>
-  </si>
-  <si>
-    <t>GENUS SPECIES ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.genus_species.ontology_label</t>
-  </si>
-  <si>
-    <t>SPECIMEN_FROM_ORGANISM.ORGAN (Required)</t>
-  </si>
-  <si>
-    <t>A term that may be associated with an anatomy-related ontology term.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: heart; immune system</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.organ.text</t>
-  </si>
-  <si>
-    <t>SPECIMEN_FROM_ORGANISM.ORGAN.ONTOLOGY ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>A term from the ontology [UBERON](https://www.ebi.ac.uk/ols/ontologies/uberon) for an organ or a cellular bodily fluid such as blood or lymph.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: UBERON:0000948; UBERON:0002405</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.organ.ontology</t>
-  </si>
-  <si>
-    <t>SPECIMEN_FROM_ORGANISM.ORGAN.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.organ.ontology_label</t>
-  </si>
-  <si>
-    <t>SPECIMEN_FROM_ORGANISM.ORGAN_PART</t>
-  </si>
-  <si>
-    <t>A term that may be associated with an anatomy-related ontology term</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: bone marrow; islet of Langerhans</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.organ_part.text</t>
-  </si>
-  <si>
-    <t>SPECIMEN_FROM_ORGANISM.ORGAN_PART.ONTOLOGY ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>A term for a specific part of an organ from the ontology [UBERON](https://www.ebi.ac.uk/ols/ontologies/uberon).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: UBERON:0002371; UBERON:0000006</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.organ_part.ontology</t>
-  </si>
-  <si>
-    <t>SPECIMEN_FROM_ORGANISM.ORGAN_PART.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.organ_part.ontology_label</t>
-  </si>
-  <si>
-    <t>KNOWN DISEASE(S)</t>
-  </si>
-  <si>
-    <t>Short description of known disease(s) of the specimen.</t>
-  </si>
-  <si>
-    <t>Enter normal if no known diseases. For example: type 2 diabetes mellitus; normal</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.diseases.text</t>
-  </si>
-  <si>
-    <t>KNOWN DISEASE(S) ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>An optional ontology reference in format where prefix_ indicates which ontology</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: MONDO:0005148; PATO:0000461</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.diseases.ontology</t>
-  </si>
-  <si>
-    <t>KNOWN DISEASE(S) ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: type 2 diabetes mellitus; normal</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.diseases.ontology_label</t>
-  </si>
-  <si>
-    <t>AUTOLYSIS SCORE</t>
-  </si>
-  <si>
-    <t>State of tissue breakdown due to self-digestion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: Should be one of: none, mild, or moderate.</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.state_of_specimen.autolysis_score</t>
-  </si>
-  <si>
-    <t>GROSS DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Color, size, and other aspects of specimen as visible to naked eye.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: focal wedge shaped region of tan-orange discoloration; cystic</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.state_of_specimen.gross_description</t>
-  </si>
-  <si>
-    <t>GROSS IMAGE</t>
-  </si>
-  <si>
-    <t>List of filenames of photographs of specimen without magnification.</t>
-  </si>
-  <si>
-    <t>File must be of format JPEG, TIFF, or PNG. For example: my_gross_image_file.jpg</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.state_of_specimen.gross_image</t>
-  </si>
-  <si>
-    <t>ISCHEMIC TEMPERATURE</t>
-  </si>
-  <si>
-    <t>Whether specimen experienced warm or cold ischemia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: Should be one of: warm, or cold.</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.state_of_specimen.ischemic_temperature</t>
-  </si>
-  <si>
-    <t>ISCHEMIC TIME</t>
-  </si>
-  <si>
-    <t>Duration of time, in seconds, between when the specimen stopped receiving oxygen and when it was preserved or processed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: 7200</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.state_of_specimen.ischemic_time</t>
-  </si>
-  <si>
-    <t>MICROSCOPIC DESCRIPTION</t>
-  </si>
-  <si>
-    <t>How the specimen looks under the microscope and how it compares with normal cells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: Mixture of different cell sizes apparent; Dead cells are quite faint on microscope</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.state_of_specimen.microscopic_description</t>
-  </si>
-  <si>
-    <t>MICROSCOPIC IMAGE</t>
-  </si>
-  <si>
-    <t>List of filenames of photographs of specimen under microscope.</t>
-  </si>
-  <si>
-    <t>File must be of format JPEG, TIFF, or PNG. For example: my_microscopic_image_file.jpg</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.state_of_specimen.microscopic_image</t>
-  </si>
-  <si>
-    <t>POST-MORTEM INTERVAL</t>
-  </si>
-  <si>
-    <t>Duration of time between when death was declared and when the specimen was preserved or processed.</t>
-  </si>
-  <si>
-    <t>Enter time in seconds. For example: 2400</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.state_of_specimen.postmortem_interval</t>
-  </si>
-  <si>
-    <t>STORAGE METHOD</t>
-  </si>
-  <si>
-    <t>The method by which a biomaterial was stored after preservation or before another protocol was used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: frozen in liquid nitrogen; fresh</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.preservation_storage.storage_method</t>
-  </si>
-  <si>
-    <t>STORAGE TIME</t>
-  </si>
-  <si>
-    <t>Length of time the biomaterial was stored for in Storage time units.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: 5</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.preservation_storage.storage_time</t>
-  </si>
-  <si>
-    <t>SPECIMEN_FROM_ORGANISM.PRESERVATION_STORAGE.STORAGE_TIME_UNIT</t>
-  </si>
-  <si>
-    <t>A term that may be associated with a time unit-related ontology term</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: second; week</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.preservation_storage.storage_time_unit.text</t>
-  </si>
-  <si>
-    <t>SPECIMEN_FROM_ORGANISM.PRESERVATION_STORAGE.STORAGE_TIME_UNIT.ONTOLOGY ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: UO:0000010; UO:0000034</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.preservation_storage.storage_time_unit.ontology</t>
-  </si>
-  <si>
-    <t>SPECIMEN_FROM_ORGANISM.PRESERVATION_STORAGE.STORAGE_TIME_UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.preservation_storage.storage_time_unit.ontology_label</t>
-  </si>
-  <si>
-    <t>PRESERVATION METHOD</t>
-  </si>
-  <si>
-    <t>The method by which a biomaterial was preserved through the use of chemicals, cold, or other means to prevent or retard biological or physical deterioration.</t>
-  </si>
-  <si>
-    <t>Enter 'fresh' if not preserved. For example: cryopreservation in liquid nitrogen (dead tissue); fresh</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.preservation_storage.preservation_method</t>
-  </si>
-  <si>
-    <t>TIME OF COLLECTION</t>
-  </si>
-  <si>
-    <t>When the biomaterial was collected.</t>
-  </si>
-  <si>
-    <t>Enter the time in date-time format: yyyy-mm-ddThh:mm:ssZ. For example: 2017-03-19T07:22:00Z</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.collection_time</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.purchased_specimen.retail_name</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.purchased_specimen.catalog_number</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.purchased_specimen.manufacturer</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.purchased_specimen.lot_number</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.purchased_specimen.expiry_date</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.purchased_specimen.kit_titer</t>
-  </si>
-  <si>
-    <t>DERIVED FROM DONOR ORGANISM</t>
-  </si>
-  <si>
-    <t>Enter biomaterial ID from "Donor organism" tab that this entity was derived from.</t>
-  </si>
-  <si>
-    <t>donor_organism.biomaterial_core.ncbi_taxon_id</t>
-  </si>
-  <si>
-    <t>donor_organism.biomaterial_core.biomaterial_id</t>
-  </si>
-  <si>
-    <t>donor_organism.biomaterial_core.biomaterial_name</t>
-  </si>
-  <si>
-    <t>donor_organism.biomaterial_core.biomaterial_description</t>
-  </si>
-  <si>
-    <t>donor_organism.biomaterial_core.genotype</t>
-  </si>
-  <si>
-    <t>donor_organism.biomaterial_core.supplementary_files</t>
-  </si>
-  <si>
-    <t>donor_organism.biomaterial_core.biosd_biomaterial</t>
-  </si>
-  <si>
-    <t>donor_organism.biomaterial_core.insdc_biomaterial</t>
-  </si>
-  <si>
-    <t>BODY MASS INDEX</t>
-  </si>
-  <si>
-    <t>The body mass index of the donor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: 36.4</t>
-  </si>
-  <si>
-    <t>donor_organism.human_specific.body_mass_index</t>
-  </si>
-  <si>
-    <t>ETHNICITY</t>
-  </si>
-  <si>
-    <t>Ethnicity of the donor.</t>
-  </si>
-  <si>
-    <t>Enter one or more ethnicities, separated by a comma. For example: European; Hispanic or Latin American</t>
-  </si>
-  <si>
-    <t>donor_organism.human_specific.ethnicity.text</t>
-  </si>
-  <si>
-    <t>ETHNICITY ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: HANCESTRO_0005 ;HANCESTRO_0014</t>
-  </si>
-  <si>
-    <t>donor_organism.human_specific.ethnicity.ontology</t>
-  </si>
-  <si>
-    <t>ETHNICITY ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: European; Hispanic or Latin American</t>
-  </si>
-  <si>
-    <t>donor_organism.human_specific.ethnicity.ontology_label</t>
-  </si>
-  <si>
-    <t>MOUSE STRAIN</t>
-  </si>
-  <si>
-    <t>The name of the mouse strain.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: C57BL/6; BALB/c</t>
-  </si>
-  <si>
-    <t>donor_organism.mouse_specific.strain.text</t>
-  </si>
-  <si>
-    <t>MOUSE STRAIN ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: EFO:0004472; EFO:0000602</t>
-  </si>
-  <si>
-    <t>donor_organism.mouse_specific.strain.ontology</t>
-  </si>
-  <si>
-    <t>MOUSE STRAIN ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>donor_organism.mouse_specific.strain.ontology_label</t>
-  </si>
-  <si>
-    <t>The scientific binomial name for the species of the organism.</t>
-  </si>
-  <si>
-    <t>donor_organism.genus_species.text</t>
-  </si>
-  <si>
-    <t>donor_organism.genus_species.ontology</t>
-  </si>
-  <si>
-    <t>donor_organism.genus_species.ontology_label</t>
-  </si>
-  <si>
-    <t>BIOLOGICAL SEX (Required)</t>
-  </si>
-  <si>
-    <t>The biological sex of the organism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: Should be one of: male, female, mixed, or unknown.</t>
-  </si>
-  <si>
-    <t>donor_organism.sex</t>
-  </si>
-  <si>
-    <t>ALIVE AT COLLECTION? (Required)</t>
-  </si>
-  <si>
-    <t>Whether organism was alive at time of biomaterial collection.</t>
-  </si>
-  <si>
-    <t>Enter yes if organism was alive at time of biomaterial collection, no if organism was dead, unknown if not known. For example: Should be one of: yes, no, or unknown.</t>
-  </si>
-  <si>
-    <t>donor_organism.is_living</t>
-  </si>
-  <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>Age of organism in Age units measured since birth.</t>
-  </si>
-  <si>
-    <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 20; 45-65</t>
-  </si>
-  <si>
-    <t>donor_organism.organism_age</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.ORGANISM_AGE_UNIT</t>
-  </si>
-  <si>
-    <t>donor_organism.organism_age_unit.text</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.ORGANISM_AGE_UNIT.ONTOLOGY ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>donor_organism.organism_age_unit.ontology</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.ORGANISM_AGE_UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>donor_organism.organism_age_unit.ontology_label</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.DEVELOPMENT_STAGE (Required)</t>
-  </si>
-  <si>
-    <t>A term that may be associated with a development stage-related ontology term</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: human adult stage; Theiler stage 28</t>
-  </si>
-  <si>
-    <t>donor_organism.development_stage.text</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.DEVELOPMENT_STAGE.ONTOLOGY ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: HsapDv:0000087; EFO:0002588</t>
-  </si>
-  <si>
-    <t>donor_organism.development_stage.ontology</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.DEVELOPMENT_STAGE.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>donor_organism.development_stage.ontology_label</t>
-  </si>
-  <si>
-    <t>Short description of known disease(s) of the organism.</t>
-  </si>
-  <si>
-    <t>Enter 'normal' if no known disease. For example: type 2 diabetes mellitus; normal</t>
-  </si>
-  <si>
-    <t>donor_organism.diseases.text</t>
-  </si>
-  <si>
-    <t>donor_organism.diseases.ontology</t>
-  </si>
-  <si>
-    <t>donor_organism.diseases.ontology_label</t>
-  </si>
-  <si>
-    <t>CAUSE OF DEATH (Required)</t>
-  </si>
-  <si>
-    <t>Conditions resulting in death.</t>
-  </si>
-  <si>
-    <t>Determined from death report for human donor or from research lab for mouse. For example: Hypoxic brain damage; Sudden cardiac arrest</t>
-  </si>
-  <si>
-    <t>donor_organism.death.cause_of_death</t>
-  </si>
-  <si>
-    <t>COLD PERFUSED?</t>
-  </si>
-  <si>
-    <t>Whether perfusion with cold fluid was used to help preserve tissues before heart stopped.</t>
-  </si>
-  <si>
-    <t>Enter yes if cold perfused. Otherwise, enter no. For example: Should be one of: yes, no.</t>
-  </si>
-  <si>
-    <t>donor_organism.death.cold_perfused</t>
-  </si>
-  <si>
-    <t>NUMBER OF DAYS ON VENTILATOR</t>
-  </si>
-  <si>
-    <t>Number of days on ventilator before death occurred.</t>
-  </si>
-  <si>
-    <t>donor_organism.death.days_on_ventilator</t>
-  </si>
-  <si>
-    <t>VALUE ON HARDY SCALE</t>
-  </si>
-  <si>
-    <t>Value on 4-point Hardy scale cause of death classification.</t>
-  </si>
-  <si>
-    <t>Enter: 0 for ventilator case, 1 for violent and fast death, 2 for fast death of natural causes, 3 for intermediate death, or 4 for slow death.</t>
-  </si>
-  <si>
-    <t>donor_organism.death.hardy_scale</t>
-  </si>
-  <si>
-    <t>TIME OF DEATH</t>
-  </si>
-  <si>
-    <t>Date and time when death was declared.</t>
-  </si>
-  <si>
-    <t>Enter the time in date-time format: yyyy-mm-ddThh:mm:ssZ. For example: 2016-01-21T00:00:00Z</t>
-  </si>
-  <si>
-    <t>donor_organism.death.time_of_death</t>
-  </si>
-  <si>
-    <t>ORGAN DONATION DEATH TYPE</t>
-  </si>
-  <si>
-    <t>Type of death preceding organ donation.</t>
-  </si>
-  <si>
-    <t>Enter value for organ donors only. For example: Should be one of: Donation after circulatory death (DCD), or Donation after brainstem death (DBD).</t>
-  </si>
-  <si>
-    <t>donor_organism.death.organ_donation_death_type</t>
-  </si>
-  <si>
-    <t>NORMOTHERMIC REGIONAL PERFUSION?</t>
-  </si>
-  <si>
-    <t>Whether entire body was perfused with warm oxygenated blood.</t>
-  </si>
-  <si>
-    <t>Enter yes if entire body (but not limbs) was perfused with warm oxygenated blood. Otherwise, enter no. For example: Should be one of: yes, no, or unknown.</t>
-  </si>
-  <si>
-    <t>donor_organism.death.normothermic_regional_perfusion</t>
-  </si>
-  <si>
-    <t>PARENT</t>
-  </si>
-  <si>
-    <t>The individual's parent.</t>
-  </si>
-  <si>
-    <t>Enter the ID of the parent of this individual.</t>
-  </si>
-  <si>
-    <t>donor_organism.familial_relationship.parent</t>
-  </si>
-  <si>
-    <t>CHILD</t>
-  </si>
-  <si>
-    <t>The individual's child.</t>
-  </si>
-  <si>
-    <t>Enter the ID of the child of this individual.</t>
-  </si>
-  <si>
-    <t>donor_organism.familial_relationship.child</t>
-  </si>
-  <si>
-    <t>SIBLING</t>
-  </si>
-  <si>
-    <t>The individual's sibling.</t>
-  </si>
-  <si>
-    <t>Enter the ID of the sibling of this individual.</t>
-  </si>
-  <si>
-    <t>donor_organism.familial_relationship.sibling</t>
-  </si>
-  <si>
-    <t>ALCOHOL HISTORY</t>
-  </si>
-  <si>
-    <t>Estimated amount of alcohol consumed per day.</t>
-  </si>
-  <si>
-    <t>Enter the amount consumed per day using units such as alcohol units (10mL or 8g of alcohol) or drinks (14g of alcohol). For example: 3-6 alcohol units/day; 1 drink per day</t>
-  </si>
-  <si>
-    <t>donor_organism.medical_history.alcohol_history</t>
-  </si>
-  <si>
-    <t>MEDICATIONS</t>
-  </si>
-  <si>
-    <t>Medications the individual was taking at time of biomaterial collection.</t>
-  </si>
-  <si>
-    <t>Enter the medication and dosage. Separate multiple medications with commas. For example: Naproxen 500mg/day; Citalopram 20mg/day</t>
-  </si>
-  <si>
-    <t>donor_organism.medical_history.medication</t>
-  </si>
-  <si>
-    <t>SMOKING HISTORY</t>
-  </si>
-  <si>
-    <t>Estimated number of cigarettes smoked per day.</t>
-  </si>
-  <si>
-    <t>Enter an estimated number of cigarettes smoked per day and for how many years. For example: 20 cigarettes/day for 25 years, stopped 2000</t>
-  </si>
-  <si>
-    <t>donor_organism.medical_history.smoking_history</t>
-  </si>
-  <si>
-    <t>NUTRITIONAL STATE</t>
-  </si>
-  <si>
-    <t>Nutritional state of individual at time of biomaterial collection.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: Should be one of: normal, fasting, or feeding tube removed.</t>
-  </si>
-  <si>
-    <t>donor_organism.medical_history.nutritional_state</t>
-  </si>
-  <si>
-    <t>TEST RESULTS</t>
-  </si>
-  <si>
-    <t>Results from medical tests performed on the individual.</t>
-  </si>
-  <si>
-    <t>donor_organism.medical_history.test_results</t>
-  </si>
-  <si>
-    <t>TREATMENTS</t>
-  </si>
-  <si>
-    <t>Treatments the individual has undergone prior to biomaterial collection.</t>
-  </si>
-  <si>
-    <t>donor_organism.medical_history.treatment</t>
-  </si>
-  <si>
-    <t>GESTATIONAL AGE</t>
-  </si>
-  <si>
-    <t>Gestational age of organism in Gestational age units measured since fertilization.</t>
-  </si>
-  <si>
-    <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 22; 5-7</t>
-  </si>
-  <si>
-    <t>donor_organism.gestational_age</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.GESTATIONAL_AGE_UNIT</t>
-  </si>
-  <si>
-    <t>donor_organism.gestational_age_unit.text</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.GESTATIONAL_AGE_UNIT.ONTOLOGY ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>donor_organism.gestational_age_unit.ontology</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.GESTATIONAL_AGE_UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>donor_organism.gestational_age_unit.ontology_label</t>
-  </si>
-  <si>
-    <t>HEIGHT</t>
-  </si>
-  <si>
-    <t>Height of organism in Height unit.</t>
-  </si>
-  <si>
-    <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 160; 120-140</t>
-  </si>
-  <si>
-    <t>donor_organism.height</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.HEIGHT_UNIT</t>
-  </si>
-  <si>
-    <t>A term that may be associated with a cell type-related ontology term</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: micrometer; meter</t>
-  </si>
-  <si>
-    <t>donor_organism.height_unit.text</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.HEIGHT_UNIT.ONTOLOGY ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: UO:0000017; UO:0000008</t>
-  </si>
-  <si>
-    <t>donor_organism.height_unit.ontology</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.HEIGHT_UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>donor_organism.height_unit.ontology_label</t>
-  </si>
-  <si>
-    <t>WEIGHT</t>
-  </si>
-  <si>
-    <t>Weight of organism in Weight unit.</t>
-  </si>
-  <si>
-    <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 60; 40-60</t>
-  </si>
-  <si>
-    <t>donor_organism.weight</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.WEIGHT_UNIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: kilogram; microgram</t>
-  </si>
-  <si>
-    <t>donor_organism.weight_unit.text</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.WEIGHT_UNIT.ONTOLOGY ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: UO:0000009; UO:0000023</t>
-  </si>
-  <si>
-    <t>donor_organism.weight_unit.ontology</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.WEIGHT_UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>donor_organism.weight_unit.ontology_label</t>
-  </si>
-  <si>
-    <t>TIMECOURSE VALUE (Required)</t>
-  </si>
-  <si>
-    <t>The numerical value in Timecourse unit associated with a time interval used in the experiment.</t>
-  </si>
-  <si>
-    <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 2; 5.5-10.5</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.value</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.TIMECOURSE.UNIT (Required)</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.unit.text</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.TIMECOURSE.UNIT.ONTOLOGY ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.unit.ontology</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.TIMECOURSE.UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.unit.ontology_label</t>
-  </si>
-  <si>
-    <t>TIMECOURSE RELEVANCE</t>
-  </si>
-  <si>
-    <t>Relevance of the Timecourse value/unit to the experiment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: Collection after tumor cells injected into the mammary gland; Time tissue underwent liberase digestion</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.relevance</t>
-  </si>
-  <si>
-    <t>DERIVED FROM SEQUENCE FILE</t>
-  </si>
-  <si>
-    <t>Enter biomaterial ID from "Sequence file" tab that this entity was derived from.</t>
-  </si>
-  <si>
-    <t>process.process_core.process_id</t>
-  </si>
-  <si>
-    <t>cell_suspension.biomaterial_core.biomaterial_id</t>
-  </si>
-  <si>
-    <t>cell_suspension.biomaterial_core.biomaterial_name</t>
-  </si>
-  <si>
-    <t>cell_suspension.biomaterial_core.biomaterial_description</t>
-  </si>
-  <si>
     <t>cell_suspension.biomaterial_core.genotype</t>
   </si>
   <si>
@@ -2107,6 +2432,18 @@
   </si>
   <si>
     <t>Enter biomaterial ID from "Specimen from organism" tab that this entity was derived from.</t>
+  </si>
+  <si>
+    <t>DISSOCIATION PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from "Dissociation protocol" tab that this entity was derrived from.</t>
+  </si>
+  <si>
+    <t>ENRICHMENT PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from "Enrichment protocol" tab that this entity was derrived from.</t>
   </si>
 </sst>
 </file>
@@ -2740,6 +3077,531 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AK5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="46.7109375" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="23" max="23" width="25.7109375" customWidth="1"/>
+    <col min="24" max="24" width="25.7109375" customWidth="1"/>
+    <col min="25" max="25" width="25.7109375" customWidth="1"/>
+    <col min="26" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="25.7109375" customWidth="1"/>
+    <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="25.7109375" customWidth="1"/>
+    <col min="32" max="32" width="25.7109375" customWidth="1"/>
+    <col min="33" max="33" width="25.7109375" customWidth="1"/>
+    <col min="34" max="34" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="30" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="30" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AY5"/>
@@ -4136,7 +4998,398 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:Z5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="28.7109375" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" customWidth="1"/>
+    <col min="23" max="23" width="25.7109375" customWidth="1"/>
+    <col min="24" max="24" width="25.7109375" customWidth="1"/>
+    <col min="25" max="25" width="25.7109375" customWidth="1"/>
+    <col min="26" max="26" width="31.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="30" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="30" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4152,120 +5405,138 @@
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>357</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>365</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>369</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>373</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>283</v>
+        <v>385</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>252</v>
+        <v>354</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>256</v>
+        <v>358</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>260</v>
+        <v>362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>366</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>374</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>276</v>
+        <v>378</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>284</v>
+        <v>386</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>253</v>
+        <v>355</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>359</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>261</v>
+        <v>363</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>273</v>
+        <v>375</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>277</v>
+        <v>379</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>262</v>
+        <v>364</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>278</v>
+        <v>380</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>282</v>
+        <v>384</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>285</v>
+        <v>387</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
+    <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4277,15 +5548,17 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4334,111 +5607,111 @@
     <col min="41" max="41" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="30" customHeight="1">
+    <row r="1" spans="1:43" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>395</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>295</v>
+        <v>401</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>405</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>314</v>
+        <v>420</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>321</v>
+        <v>427</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>433</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>331</v>
+        <v>437</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>333</v>
+        <v>439</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>337</v>
+        <v>443</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>347</v>
+        <v>453</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>351</v>
+        <v>457</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>354</v>
+        <v>460</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>358</v>
+        <v>464</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>362</v>
+        <v>468</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>366</v>
+        <v>472</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>370</v>
+        <v>476</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>374</v>
+        <v>480</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>382</v>
+        <v>488</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>386</v>
+        <v>492</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>390</v>
+        <v>496</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>394</v>
+        <v>500</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>398</v>
+        <v>504</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>401</v>
+        <v>507</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>403</v>
+        <v>509</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>407</v>
+        <v>513</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>111</v>
@@ -4459,36 +5732,39 @@
         <v>131</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="2" spans="1:42">
-      <c r="A2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>315</v>
+        <v>421</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -4497,64 +5773,64 @@
         <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>324</v>
+        <v>430</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>328</v>
+        <v>434</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>334</v>
+        <v>440</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>338</v>
+        <v>444</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>344</v>
+        <v>450</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>348</v>
+        <v>454</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>359</v>
+        <v>465</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>363</v>
+        <v>469</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>367</v>
+        <v>473</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>379</v>
+        <v>485</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>383</v>
+        <v>489</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>387</v>
+        <v>493</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>391</v>
+        <v>497</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>395</v>
+        <v>501</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>28</v>
@@ -4563,10 +5839,10 @@
         <v>32</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>404</v>
+        <v>510</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>408</v>
+        <v>514</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>112</v>
@@ -4587,106 +5863,109 @@
         <v>132</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>418</v>
+        <v>524</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>301</v>
+        <v>407</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>312</v>
+        <v>418</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>329</v>
+        <v>435</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>335</v>
+        <v>441</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>335</v>
+        <v>441</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>345</v>
+        <v>451</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>356</v>
+        <v>462</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>360</v>
+        <v>466</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>364</v>
+        <v>470</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>368</v>
+        <v>474</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>372</v>
+        <v>478</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>376</v>
+        <v>482</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>380</v>
+        <v>486</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>384</v>
+        <v>490</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>388</v>
+        <v>494</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>392</v>
+        <v>498</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>399</v>
+        <v>505</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>405</v>
+        <v>511</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>409</v>
+        <v>515</v>
       </c>
       <c r="AJ3" s="2" t="s">
         <v>113</v>
@@ -4707,135 +5986,138 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:43">
       <c r="A4" s="3" t="s">
-        <v>288</v>
+        <v>394</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>291</v>
+        <v>397</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>294</v>
+        <v>400</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>298</v>
+        <v>404</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>302</v>
+        <v>408</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>309</v>
+        <v>415</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>313</v>
+        <v>419</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>317</v>
+        <v>423</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>320</v>
+        <v>426</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>322</v>
+        <v>428</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>326</v>
+        <v>432</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>330</v>
+        <v>436</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>332</v>
+        <v>438</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>340</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>342</v>
+        <v>448</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>346</v>
+        <v>452</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>350</v>
+        <v>456</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>353</v>
+        <v>459</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>361</v>
+        <v>467</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>369</v>
+        <v>475</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>373</v>
+        <v>479</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>377</v>
+        <v>483</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>381</v>
+        <v>487</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>385</v>
+        <v>491</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>389</v>
+        <v>495</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>393</v>
+        <v>499</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>397</v>
+        <v>503</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>400</v>
+        <v>506</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>402</v>
+        <v>508</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>406</v>
+        <v>512</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>410</v>
+        <v>516</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>411</v>
+        <v>517</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>412</v>
+        <v>518</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>413</v>
+        <v>519</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>415</v>
+        <v>521</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>419</v>
+        <v>525</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="30" customHeight="1">
+    <row r="5" spans="1:43" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4880,13 +6162,14 @@
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL5"/>
   <sheetViews>
@@ -4961,228 +6244,228 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>395</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>295</v>
+        <v>401</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>405</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>454</v>
+        <v>562</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>458</v>
+        <v>566</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>462</v>
+        <v>570</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>466</v>
+        <v>574</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>468</v>
+        <v>576</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>470</v>
+        <v>578</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>472</v>
+        <v>580</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>476</v>
+        <v>584</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>479</v>
+        <v>587</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>347</v>
+        <v>453</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>351</v>
+        <v>457</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>486</v>
+        <v>594</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>490</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>494</v>
+        <v>602</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>497</v>
+        <v>605</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>501</v>
+        <v>609</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>505</v>
+        <v>613</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>509</v>
+        <v>617</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>513</v>
+        <v>621</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>517</v>
+        <v>625</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>521</v>
+        <v>629</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>525</v>
+        <v>633</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>529</v>
+        <v>637</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>533</v>
+        <v>641</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>537</v>
+        <v>645</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>541</v>
+        <v>649</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>544</v>
+        <v>652</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>547</v>
+        <v>655</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>551</v>
+        <v>659</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>553</v>
+        <v>661</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>555</v>
+        <v>663</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>557</v>
+        <v>665</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>561</v>
+        <v>669</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>565</v>
+        <v>673</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>568</v>
+        <v>676</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>570</v>
+        <v>678</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>574</v>
+        <v>682</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>577</v>
+        <v>685</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>580</v>
+        <v>688</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>582</v>
+        <v>690</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>586</v>
+        <v>694</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>588</v>
+        <v>696</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>590</v>
+        <v>698</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>592</v>
+        <v>700</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>596</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:64">
       <c r="A2" s="2" t="s">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>290</v>
+        <v>396</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>296</v>
+        <v>402</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>300</v>
+        <v>406</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>304</v>
+        <v>410</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>311</v>
+        <v>417</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>428</v>
+        <v>536</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>432</v>
+        <v>540</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>28</v>
@@ -5191,7 +6474,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>442</v>
+        <v>550</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>28</v>
@@ -5200,7 +6483,7 @@
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>450</v>
+        <v>558</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>28</v>
@@ -5209,16 +6492,16 @@
         <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>455</v>
+        <v>563</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>459</v>
+        <v>567</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>463</v>
+        <v>571</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>395</v>
+        <v>501</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>28</v>
@@ -5227,7 +6510,7 @@
         <v>32</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>473</v>
+        <v>581</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>28</v>
@@ -5236,67 +6519,67 @@
         <v>32</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>481</v>
+        <v>589</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>348</v>
+        <v>454</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>487</v>
+        <v>595</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>491</v>
+        <v>599</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>495</v>
+        <v>603</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>498</v>
+        <v>606</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>502</v>
+        <v>610</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>506</v>
+        <v>614</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>510</v>
+        <v>618</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>514</v>
+        <v>622</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>518</v>
+        <v>626</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>522</v>
+        <v>630</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>526</v>
+        <v>634</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>530</v>
+        <v>638</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>534</v>
+        <v>642</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>538</v>
+        <v>646</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>542</v>
+        <v>650</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>545</v>
+        <v>653</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>548</v>
+        <v>656</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>395</v>
+        <v>501</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>28</v>
@@ -5305,10 +6588,10 @@
         <v>32</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>562</v>
+        <v>670</v>
       </c>
       <c r="BA2" s="2" t="s">
         <v>28</v>
@@ -5317,10 +6600,10 @@
         <v>32</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>571</v>
+        <v>679</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>562</v>
+        <v>670</v>
       </c>
       <c r="BE2" s="2" t="s">
         <v>28</v>
@@ -5329,10 +6612,10 @@
         <v>32</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>583</v>
+        <v>691</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>395</v>
+        <v>501</v>
       </c>
       <c r="BI2" s="2" t="s">
         <v>28</v>
@@ -5341,10 +6624,10 @@
         <v>32</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>593</v>
+        <v>701</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>597</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:64">
@@ -5352,372 +6635,372 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>301</v>
+        <v>407</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>312</v>
+        <v>418</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>429</v>
+        <v>537</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>436</v>
+        <v>544</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>439</v>
+        <v>547</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>443</v>
+        <v>551</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>446</v>
+        <v>554</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>443</v>
+        <v>551</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>456</v>
+        <v>564</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>460</v>
+        <v>568</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>464</v>
+        <v>572</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>399</v>
+        <v>505</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>474</v>
+        <v>582</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>477</v>
+        <v>585</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>474</v>
+        <v>582</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>482</v>
+        <v>590</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>488</v>
+        <v>596</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>492</v>
+        <v>600</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>499</v>
+        <v>607</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>503</v>
+        <v>611</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>507</v>
+        <v>615</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>511</v>
+        <v>619</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>515</v>
+        <v>623</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>519</v>
+        <v>627</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>523</v>
+        <v>631</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>527</v>
+        <v>635</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>531</v>
+        <v>639</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>535</v>
+        <v>643</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2" t="s">
-        <v>549</v>
+        <v>657</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>399</v>
+        <v>505</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>563</v>
+        <v>671</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>566</v>
+        <v>674</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>563</v>
+        <v>671</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>572</v>
+        <v>680</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>575</v>
+        <v>683</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>578</v>
+        <v>686</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>575</v>
+        <v>683</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>584</v>
+        <v>692</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>399</v>
+        <v>505</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>594</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:64">
       <c r="A4" s="3" t="s">
-        <v>420</v>
+        <v>525</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>421</v>
+        <v>528</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>422</v>
+        <v>529</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>419</v>
+        <v>530</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>423</v>
+        <v>531</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>424</v>
+        <v>532</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>426</v>
+        <v>534</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>430</v>
+        <v>538</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>434</v>
+        <v>542</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>437</v>
+        <v>545</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>440</v>
+        <v>548</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>444</v>
+        <v>552</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>447</v>
+        <v>555</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>449</v>
+        <v>557</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>451</v>
+        <v>559</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>452</v>
+        <v>560</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>453</v>
+        <v>561</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>457</v>
+        <v>565</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>461</v>
+        <v>569</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>465</v>
+        <v>573</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>467</v>
+        <v>575</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>469</v>
+        <v>577</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>471</v>
+        <v>579</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>475</v>
+        <v>583</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>478</v>
+        <v>586</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>480</v>
+        <v>588</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>483</v>
+        <v>591</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>484</v>
+        <v>592</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>485</v>
+        <v>593</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>489</v>
+        <v>597</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>493</v>
+        <v>601</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>496</v>
+        <v>604</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>500</v>
+        <v>608</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>504</v>
+        <v>612</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>508</v>
+        <v>616</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>512</v>
+        <v>620</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>516</v>
+        <v>624</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>520</v>
+        <v>628</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>524</v>
+        <v>632</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>528</v>
+        <v>636</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>532</v>
+        <v>640</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>536</v>
+        <v>644</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>540</v>
+        <v>648</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>543</v>
+        <v>651</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>546</v>
+        <v>654</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>550</v>
+        <v>658</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>552</v>
+        <v>660</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>554</v>
+        <v>662</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>556</v>
+        <v>664</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>560</v>
+        <v>668</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>564</v>
+        <v>672</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>567</v>
+        <v>675</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>569</v>
+        <v>677</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>573</v>
+        <v>681</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>576</v>
+        <v>684</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>579</v>
+        <v>687</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>581</v>
+        <v>689</v>
       </c>
       <c r="BG4" s="3" t="s">
-        <v>585</v>
+        <v>693</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>587</v>
+        <v>695</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>589</v>
+        <v>697</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>591</v>
+        <v>699</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>595</v>
+        <v>703</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>598</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1">
@@ -5791,509 +7074,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="25.7109375" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" customWidth="1"/>
-    <col min="18" max="18" width="25.7109375" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" customWidth="1"/>
-    <col min="23" max="23" width="25.7109375" customWidth="1"/>
-    <col min="24" max="24" width="25.7109375" customWidth="1"/>
-    <col min="25" max="25" width="25.7109375" customWidth="1"/>
-    <col min="26" max="26" width="0" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="25.7109375" customWidth="1"/>
-    <col min="29" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="25.7109375" customWidth="1"/>
-    <col min="32" max="32" width="25.7109375" customWidth="1"/>
-    <col min="33" max="33" width="25.7109375" customWidth="1"/>
-    <col min="34" max="34" width="25.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="30" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/examples/template/generic_with_links.xlsx
+++ b/examples/template/generic_with_links.xlsx
@@ -1189,13 +1189,13 @@
     <t>cell_suspension.biomaterial_core.biomaterial_id</t>
   </si>
   <si>
-    <t>LIBRARY PREPARATION PROTOCOL</t>
+    <t>ID OF LIBRARY PREPARATION PROTOCOL USED</t>
   </si>
   <si>
     <t>Enter protocol ID from "Library preparation protocol" tab that this entity was derrived from.</t>
   </si>
   <si>
-    <t>SEQUENCING PROTOCOL</t>
+    <t>ID OF SEQUENCING PROTOCOL USED</t>
   </si>
   <si>
     <t>Enter protocol ID from "Sequencing protocol" tab that this entity was derrived from.</t>
@@ -1603,7 +1603,7 @@
     <t>donor_organism.biomaterial_core.biomaterial_id</t>
   </si>
   <si>
-    <t>COLLECTION PROTOCOL</t>
+    <t>ID OF COLLECTION PROTOCOL USED</t>
   </si>
   <si>
     <t>Enter protocol ID from "Collection protocol" tab that this entity was derrived from.</t>
@@ -2434,13 +2434,13 @@
     <t>Enter biomaterial ID from "Specimen from organism" tab that this entity was derived from.</t>
   </si>
   <si>
-    <t>DISSOCIATION PROTOCOL</t>
+    <t>ID OF DISSOCIATION PROTOCOL USED</t>
   </si>
   <si>
     <t>Enter protocol ID from "Dissociation protocol" tab that this entity was derrived from.</t>
   </si>
   <si>
-    <t>ENRICHMENT PROTOCOL</t>
+    <t>ID OF ENRICHMENT PROTOCOL USED</t>
   </si>
   <si>
     <t>Enter protocol ID from "Enrichment protocol" tab that this entity was derrived from.</t>
